--- a/Календарный план.xlsx
+++ b/Календарный план.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>Календарный план проекта</t>
   </si>
@@ -66,18 +66,12 @@
     <t>Проектирование системы</t>
   </si>
   <si>
-    <t>Написание диаграмм UML (диаграмма классов, прецедентов, …)</t>
-  </si>
-  <si>
     <t>Создание прототипов интерфейса</t>
   </si>
   <si>
     <t>Реализация системы</t>
   </si>
   <si>
-    <t>Создание схемы БД</t>
-  </si>
-  <si>
     <t>Создание страниц</t>
   </si>
   <si>
@@ -90,15 +84,6 @@
     <t>Определение цели, основных пользователей приложения и функций</t>
   </si>
   <si>
-    <t>Написание серверной части</t>
-  </si>
-  <si>
-    <t>Написание клиентской части</t>
-  </si>
-  <si>
-    <t>Организация взаимодействия клиента и сервера</t>
-  </si>
-  <si>
     <t>Реализация дополнительного функционала</t>
   </si>
   <si>
@@ -106,6 +91,54 @@
   </si>
   <si>
     <t>Поиск, сравнение и выбор технологий</t>
+  </si>
+  <si>
+    <t>Написание диаграмм UML</t>
+  </si>
+  <si>
+    <t>Диаграмма прецедентов</t>
+  </si>
+  <si>
+    <t>Диаграмма классов</t>
+  </si>
+  <si>
+    <t>Диаграмма взаимодействия (разрешение конфликтов)</t>
+  </si>
+  <si>
+    <t>Страница авторизации/регистрации</t>
+  </si>
+  <si>
+    <t>Страница личного кабинета</t>
+  </si>
+  <si>
+    <t>Главная страница со списком фильмов</t>
+  </si>
+  <si>
+    <t>Страница информации о фильме (просмотр, редактирование)</t>
+  </si>
+  <si>
+    <t>Страница бронирования</t>
+  </si>
+  <si>
+    <t>Страница восстановления пароля</t>
+  </si>
+  <si>
+    <t>Создание и наполнение БД</t>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>Верстка</t>
+  </si>
+  <si>
+    <t>Написание кода</t>
+  </si>
+  <si>
+    <t>Написаие кода</t>
+  </si>
+  <si>
+    <t>Общее тестирование системы</t>
   </si>
 </sst>
 </file>
@@ -173,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -206,44 +239,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -279,6 +275,171 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -287,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,33 +456,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,17 +495,164 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,351 +955,900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="5.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>42272</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="21">
         <v>42278</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>42272</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="27">
         <v>42275</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>42272</v>
+      </c>
+      <c r="B6" s="33">
+        <v>42275</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>42272</v>
+      </c>
+      <c r="B7" s="33">
+        <v>42276</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>42277</v>
+      </c>
+      <c r="B8" s="33">
+        <v>42278</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="21">
+        <v>42292</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>42278</v>
+      </c>
+      <c r="B10" s="27">
+        <v>42285</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>42286</v>
+      </c>
+      <c r="B11" s="33">
+        <v>42292</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>42272</v>
-      </c>
-      <c r="B6" s="4">
-        <v>42275</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>42272</v>
-      </c>
-      <c r="B7" s="4">
-        <v>42276</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>42277</v>
-      </c>
-      <c r="B8" s="4">
-        <v>42278</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>42278</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="E11" s="36"/>
+      <c r="F11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>42286</v>
+      </c>
+      <c r="B12" s="21">
+        <v>42299</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>42286</v>
+      </c>
+      <c r="B13" s="41">
         <v>42292</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>42278</v>
-      </c>
-      <c r="B10" s="4">
-        <v>42285</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>42292</v>
+      </c>
+      <c r="B17" s="46">
+        <v>42299</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>42286</v>
-      </c>
-      <c r="B11" s="4">
-        <v>42292</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>42286</v>
-      </c>
-      <c r="B12" s="7">
-        <v>42299</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>42286</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42292</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>42292</v>
-      </c>
-      <c r="B14" s="4">
-        <v>42299</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>42300</v>
+      </c>
+      <c r="B24" s="21">
+        <v>42340</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>42300</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B25" s="27">
+        <v>42306</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="45">
+        <v>42300</v>
+      </c>
+      <c r="B26" s="46">
+        <v>42313</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>42300</v>
+      </c>
+      <c r="B27" s="41">
+        <v>42305</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="51">
+        <v>42306</v>
+      </c>
+      <c r="B28" s="52">
+        <v>42313</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="31"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
+        <v>42300</v>
+      </c>
+      <c r="B30" s="46">
+        <v>42313</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>42300</v>
+      </c>
+      <c r="B31" s="41">
+        <v>42305</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="51">
+        <v>42306</v>
+      </c>
+      <c r="B32" s="52">
+        <v>42313</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="45">
+        <v>42314</v>
+      </c>
+      <c r="B34" s="46">
+        <v>42327</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="45">
+        <v>42314</v>
+      </c>
+      <c r="B38" s="46">
+        <v>42327</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="45">
+        <v>42328</v>
+      </c>
+      <c r="B42" s="46">
         <v>42340</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>42300</v>
-      </c>
-      <c r="B16" s="4">
-        <v>42306</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C42" s="50"/>
+      <c r="D42" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>42300</v>
-      </c>
-      <c r="B17" s="4">
-        <v>42313</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="F45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
+        <v>42328</v>
+      </c>
+      <c r="B46" s="46">
+        <v>42340</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20">
+        <v>42327</v>
+      </c>
+      <c r="B50" s="21">
+        <v>42340</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="59">
+        <v>42341</v>
+      </c>
+      <c r="B51" s="60">
+        <v>42342</v>
+      </c>
+      <c r="C51" s="61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>42314</v>
-      </c>
-      <c r="B18" s="4">
-        <v>42320</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>42320</v>
-      </c>
-      <c r="B19" s="4">
-        <v>42326</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>42327</v>
-      </c>
-      <c r="B20" s="4">
-        <v>42340</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>42327</v>
-      </c>
-      <c r="B21" s="7">
-        <v>42340</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>42341</v>
-      </c>
-      <c r="B23" s="7">
-        <v>42342</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="64">
+        <v>42343</v>
+      </c>
+      <c r="B52" s="65">
+        <v>42355</v>
+      </c>
+      <c r="C52" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>42343</v>
-      </c>
-      <c r="B24" s="7">
-        <v>42355</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="32">
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:C49"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Календарный план.xlsx
+++ b/Календарный план.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="План" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>Календарный план проекта</t>
   </si>
@@ -133,9 +131,6 @@
   </si>
   <si>
     <t>Написание кода</t>
-  </si>
-  <si>
-    <t>Написаие кода</t>
   </si>
   <si>
     <t>Общее тестирование системы</t>
@@ -468,49 +463,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,17 +553,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -540,17 +589,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -567,98 +610,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -958,7 +978,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,44 +992,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1021,810 +1041,857 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="7">
         <v>42272</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="8">
         <v>42278</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="10">
         <v>42272</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="11">
         <v>42275</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="14">
         <v>42272</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="15">
         <v>42275</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="31"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="14">
         <v>42272</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="15">
         <v>42276</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="14">
         <v>42277</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="15">
         <v>42278</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="7">
         <v>42278</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="8">
         <v>42292</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="10">
         <v>42278</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="11">
         <v>42285</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="14">
         <v>42286</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="15">
         <v>42292</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="7">
         <v>42286</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="8">
         <v>42299</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="17">
         <v>42286</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="18">
         <v>42292</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="31"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="22">
         <v>42292</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="23">
         <v>42299</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="31"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="31"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="31"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="F23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="7">
         <v>42300</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="8">
         <v>42340</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="10">
         <v>42300</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="11">
         <v>42306</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="22">
         <v>42300</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="23">
         <v>42313</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="31"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="17">
         <v>42300</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="18">
         <v>42305</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="31"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
+      <c r="A28" s="43">
         <v>42306</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="45">
         <v>42313</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="31"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="44" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="31"/>
+      <c r="F29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
+      <c r="A30" s="22">
         <v>42300</v>
       </c>
-      <c r="B30" s="46">
-        <v>42313</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="29" t="s">
+      <c r="B30" s="23">
+        <v>42320</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31" t="s">
+      <c r="E30" s="48"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
+      <c r="A31" s="17">
         <v>42300</v>
       </c>
-      <c r="B31" s="41">
-        <v>42305</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44" t="s">
+      <c r="B31" s="18">
+        <v>42306</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
-        <v>42306</v>
-      </c>
-      <c r="B32" s="52">
-        <v>42313</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44" t="s">
+      <c r="A32" s="43">
+        <v>42338</v>
+      </c>
+      <c r="B32" s="45">
+        <v>42320</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31" t="s">
+      <c r="F33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="22">
         <v>42314</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="23">
         <v>42327</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44" t="s">
+      <c r="A35" s="27">
+        <v>42314</v>
+      </c>
+      <c r="B35" s="28">
+        <v>42320</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="F35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44" t="s">
+      <c r="A36" s="43">
+        <v>42321</v>
+      </c>
+      <c r="B36" s="45">
+        <v>42327</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="F36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="A38" s="22">
+        <v>42320</v>
+      </c>
+      <c r="B38" s="23">
+        <v>42327</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>42320</v>
+      </c>
+      <c r="B39" s="18">
+        <v>42323</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>42324</v>
+      </c>
+      <c r="B40" s="45">
+        <v>42327</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
         <v>42314</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B42" s="23">
         <v>42327</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>42314</v>
+      </c>
+      <c r="B43" s="18">
+        <v>42320</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44" t="s">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>42321</v>
+      </c>
+      <c r="B44" s="45">
+        <v>42327</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>42328</v>
+      </c>
+      <c r="B46" s="23">
+        <v>42340</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>42327</v>
+      </c>
+      <c r="B50" s="8">
+        <v>42340</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="45">
-        <v>42328</v>
-      </c>
-      <c r="B42" s="46">
-        <v>42340</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
-        <v>42328</v>
-      </c>
-      <c r="B46" s="46">
-        <v>42340</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="31"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="31"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="31"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="31"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20">
-        <v>42327</v>
-      </c>
-      <c r="B50" s="21">
-        <v>42340</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="25" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59">
+      <c r="A51" s="30">
         <v>42341</v>
       </c>
-      <c r="B51" s="60">
+      <c r="B51" s="31">
         <v>42342</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="25" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="64">
+      <c r="A52" s="32">
         <v>42343</v>
       </c>
-      <c r="B52" s="65">
+      <c r="B52" s="33">
         <v>42355</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
+  <mergeCells count="40">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="D25:E25"/>
@@ -1834,46 +1901,36 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <conditionalFormatting sqref="F4:F52">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G52">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H52">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Календарный план.xlsx
+++ b/Календарный план.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>Календарный план проекта</t>
   </si>
@@ -201,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -439,11 +439,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,18 +554,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -553,100 +629,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,7 +1030,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,44 +1044,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1047,11 +1099,11 @@
       <c r="B4" s="8">
         <v>42278</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1064,10 +1116,10 @@
         <v>42275</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
@@ -1082,10 +1134,10 @@
         <v>42275</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
         <v>13</v>
@@ -1100,10 +1152,10 @@
         <v>42276</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1118,10 +1170,10 @@
         <v>42278</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1139,11 +1191,11 @@
       <c r="B9" s="8">
         <v>42292</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1156,10 +1208,10 @@
         <v>42285</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1178,10 +1230,10 @@
         <v>42292</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1199,11 +1251,11 @@
       <c r="B12" s="8">
         <v>42299</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1216,10 +1268,10 @@
         <v>42292</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1374,11 +1426,11 @@
       <c r="B24" s="8">
         <v>42340</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1391,10 +1443,10 @@
         <v>42306</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1408,13 +1460,13 @@
       <c r="B26" s="23">
         <v>42313</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -1428,25 +1480,27 @@
       <c r="B27" s="18">
         <v>42305</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="20"/>
       <c r="E27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="48">
         <v>42306</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="50">
         <v>42313</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
         <v>38</v>
@@ -1458,9 +1512,9 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="29"/>
       <c r="E29" s="21" t="s">
         <v>19</v>
@@ -1480,11 +1534,11 @@
       <c r="B30" s="23">
         <v>42320</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
@@ -1498,7 +1552,7 @@
       <c r="B31" s="18">
         <v>42306</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="20"/>
       <c r="E31" s="21" t="s">
         <v>37</v>
@@ -1510,13 +1564,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="48">
         <v>42338</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="50">
         <v>42320</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21" t="s">
         <v>38</v>
@@ -1527,10 +1581,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="49"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21" t="s">
         <v>19</v>
@@ -1543,32 +1597,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>42314</v>
       </c>
       <c r="B34" s="23">
         <v>42327</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="65"/>
+      <c r="D34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="48"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>42314</v>
       </c>
       <c r="B35" s="28">
         <v>42320</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21" t="s">
         <v>37</v>
@@ -1579,14 +1633,14 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
         <v>42321</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="50">
         <v>42327</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="20"/>
       <c r="E36" s="21" t="s">
         <v>38</v>
@@ -1594,13 +1648,15 @@
       <c r="F36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="49"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="20"/>
       <c r="E37" s="21" t="s">
         <v>19</v>
@@ -1611,32 +1667,32 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>42320</v>
       </c>
       <c r="B38" s="23">
         <v>42327</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="47" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>42320</v>
       </c>
       <c r="B39" s="18">
         <v>42323</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21" t="s">
         <v>37</v>
@@ -1647,14 +1703,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
         <v>42324</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="50">
         <v>42327</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21" t="s">
         <v>38</v>
@@ -1665,10 +1721,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="49"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="20"/>
       <c r="E41" s="21" t="s">
         <v>19</v>
@@ -1681,117 +1737,132 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
-        <v>42314</v>
+        <v>42324</v>
       </c>
       <c r="B42" s="23">
-        <v>42327</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="13"/>
+        <v>42340</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>42314</v>
-      </c>
-      <c r="B43" s="18">
-        <v>42320</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21" t="s">
-        <v>37</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>42324</v>
+      </c>
+      <c r="B43" s="34">
+        <v>42331</v>
+      </c>
+      <c r="C43" s="72"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
-        <v>42321</v>
-      </c>
-      <c r="B44" s="45">
-        <v>42327</v>
-      </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="H43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>42332</v>
+      </c>
+      <c r="B44" s="34">
+        <v>42338</v>
+      </c>
+      <c r="C44" s="72"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="13"/>
       <c r="G44" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21" t="s">
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>42336</v>
+      </c>
+      <c r="B45" s="35">
+        <v>42340</v>
+      </c>
+      <c r="C45" s="72"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
-        <v>42328</v>
+        <v>42341</v>
       </c>
       <c r="B46" s="23">
-        <v>42340</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="48"/>
+        <v>42348</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="56"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="49"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>42341</v>
+      </c>
+      <c r="B47" s="34">
+        <v>42345</v>
+      </c>
+      <c r="C47" s="72"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>42343</v>
+      </c>
+      <c r="B48" s="34">
+        <v>42348</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="37" t="s">
         <v>37</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13" t="s">
@@ -1800,31 +1871,39 @@
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="32">
+        <v>42344</v>
+      </c>
+      <c r="B49" s="34">
+        <v>42348</v>
+      </c>
+      <c r="C49" s="73"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G49" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>42327</v>
-      </c>
-      <c r="B50" s="8">
+      <c r="A50" s="77">
         <v>42340</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="B50" s="78">
+        <v>42355</v>
+      </c>
+      <c r="C50" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
@@ -1836,17 +1915,17 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30">
-        <v>42341</v>
-      </c>
-      <c r="B51" s="31">
-        <v>42342</v>
-      </c>
-      <c r="C51" s="37" t="s">
+      <c r="A51" s="74">
+        <v>42356</v>
+      </c>
+      <c r="B51" s="75">
+        <v>42356</v>
+      </c>
+      <c r="C51" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="9" t="s">
         <v>13</v>
       </c>
@@ -1858,23 +1937,43 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
-        <v>42343</v>
-      </c>
-      <c r="B52" s="33">
-        <v>42355</v>
-      </c>
-      <c r="C52" s="40" t="s">
+      <c r="A52" s="30">
+        <v>42356</v>
+      </c>
+      <c r="B52" s="31">
+        <v>42363</v>
+      </c>
+      <c r="C52" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="36">
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:C49"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1891,30 +1990,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:C49"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F52">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/Календарный план.xlsx
+++ b/Календарный план.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t>Календарный план проекта</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Общее тестирование системы</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Реализация функций админа (добавление/удаление фильмов, сеансов)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -407,9 +413,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -420,9 +424,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -431,30 +433,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -465,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,6 +556,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,39 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -659,8 +670,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -671,41 +682,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1027,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,44 +1067,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1099,11 +1122,11 @@
       <c r="B4" s="8">
         <v>42278</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1116,10 +1139,10 @@
         <v>42275</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
@@ -1134,10 +1157,10 @@
         <v>42275</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
         <v>13</v>
@@ -1152,10 +1175,10 @@
         <v>42276</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1170,10 +1193,10 @@
         <v>42278</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1191,11 +1214,11 @@
       <c r="B9" s="8">
         <v>42292</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1208,10 +1231,10 @@
         <v>42285</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1230,10 +1253,10 @@
         <v>42292</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1251,11 +1274,11 @@
       <c r="B12" s="8">
         <v>42299</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1268,10 +1291,10 @@
         <v>42292</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1426,11 +1449,11 @@
       <c r="B24" s="8">
         <v>42340</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1443,10 +1466,10 @@
         <v>42306</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1460,13 +1483,13 @@
       <c r="B26" s="23">
         <v>42313</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -1480,7 +1503,7 @@
       <c r="B27" s="18">
         <v>42305</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="20"/>
       <c r="E27" s="21" t="s">
         <v>37</v>
@@ -1494,13 +1517,13 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="50">
         <v>42306</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="52">
         <v>42313</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
         <v>38</v>
@@ -1512,9 +1535,9 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="29"/>
       <c r="E29" s="21" t="s">
         <v>19</v>
@@ -1534,11 +1557,11 @@
       <c r="B30" s="23">
         <v>42320</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="55" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
@@ -1552,7 +1575,7 @@
       <c r="B31" s="18">
         <v>42306</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="20"/>
       <c r="E31" s="21" t="s">
         <v>37</v>
@@ -1564,13 +1587,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+      <c r="A32" s="50">
         <v>42338</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="52">
         <v>42320</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21" t="s">
         <v>38</v>
@@ -1582,9 +1605,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21" t="s">
         <v>19</v>
@@ -1604,11 +1627,11 @@
       <c r="B34" s="23">
         <v>42327</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="55" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="13" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1645,7 @@
       <c r="B35" s="28">
         <v>42320</v>
       </c>
-      <c r="C35" s="65"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21" t="s">
         <v>37</v>
@@ -1634,13 +1657,13 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="50">
         <v>42321</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="52">
         <v>42327</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="20"/>
       <c r="E36" s="21" t="s">
         <v>38</v>
@@ -1654,9 +1677,9 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="20"/>
       <c r="E37" s="21" t="s">
         <v>19</v>
@@ -1674,11 +1697,11 @@
       <c r="B38" s="23">
         <v>42327</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="55" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13" t="s">
@@ -1692,7 +1715,7 @@
       <c r="B39" s="18">
         <v>42323</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21" t="s">
         <v>37</v>
@@ -1704,13 +1727,13 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="48">
+      <c r="A40" s="50">
         <v>42324</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="52">
         <v>42327</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21" t="s">
         <v>38</v>
@@ -1722,9 +1745,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="20"/>
       <c r="E41" s="21" t="s">
         <v>19</v>
@@ -1744,12 +1767,12 @@
       <c r="B42" s="23">
         <v>42340</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="55" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="76"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="13" t="s">
         <v>13</v>
       </c>
@@ -1762,7 +1785,7 @@
       <c r="B43" s="34">
         <v>42331</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="36"/>
       <c r="E43" s="37" t="s">
         <v>38</v>
@@ -1783,7 +1806,7 @@
       <c r="B44" s="34">
         <v>42338</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="36"/>
       <c r="E44" s="37" t="s">
         <v>37</v>
@@ -1802,7 +1825,7 @@
       <c r="B45" s="35">
         <v>42340</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37" t="s">
         <v>19</v>
@@ -1821,11 +1844,11 @@
       <c r="B46" s="23">
         <v>42348</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>13</v>
@@ -1839,7 +1862,7 @@
       <c r="B47" s="34">
         <v>42345</v>
       </c>
-      <c r="C47" s="72"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21" t="s">
         <v>38</v>
@@ -1859,7 +1882,7 @@
       <c r="B48" s="34">
         <v>42348</v>
       </c>
-      <c r="C48" s="72"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="20"/>
       <c r="E48" s="37" t="s">
         <v>37</v>
@@ -1877,8 +1900,8 @@
       <c r="B49" s="34">
         <v>42348</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="21" t="s">
         <v>19</v>
       </c>
@@ -1892,88 +1915,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="77">
-        <v>42340</v>
-      </c>
-      <c r="B50" s="78">
-        <v>42355</v>
-      </c>
-      <c r="C50" s="52" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="82">
+        <v>42350</v>
+      </c>
+      <c r="B50" s="83">
+        <v>42362</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="85"/>
+      <c r="F50" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="45">
+        <v>42356</v>
+      </c>
+      <c r="B51" s="46">
+        <v>42362</v>
+      </c>
+      <c r="C51" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74">
-        <v>42356</v>
-      </c>
-      <c r="B51" s="75">
-        <v>42356</v>
-      </c>
-      <c r="C51" s="66" t="s">
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42">
+        <v>42363</v>
+      </c>
+      <c r="B52" s="43">
+        <v>42363</v>
+      </c>
+      <c r="C52" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
-        <v>42356</v>
-      </c>
-      <c r="B52" s="31">
-        <v>42363</v>
-      </c>
-      <c r="C52" s="69" t="s">
+      <c r="D52" s="78"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>42364</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:C49"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D46:E46"/>
+  <mergeCells count="35">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1990,19 +2015,38 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:C49"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F52">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="F4:F53">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G52">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G4:G53">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="H4:H53">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Календарный план.xlsx
+++ b/Календарный план.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>Календарный план проекта</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Определение цели, основных пользователей приложения и функций</t>
   </si>
   <si>
-    <t>Реализация дополнительного функционала</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Изучение технологий</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>Общее тестирование системы</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>Реализация функций админа (добавление/удаление фильмов, сеансов)</t>
@@ -207,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -404,37 +398,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -532,12 +495,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,21 +516,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,6 +525,60 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -592,18 +588,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -615,6 +599,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -622,113 +624,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1050,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:H50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,44 +1006,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1122,11 +1061,11 @@
       <c r="B4" s="8">
         <v>42278</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1139,10 +1078,10 @@
         <v>42275</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
@@ -1157,10 +1096,10 @@
         <v>42275</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
         <v>13</v>
@@ -1175,10 +1114,10 @@
         <v>42276</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1193,10 +1132,10 @@
         <v>42278</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1214,11 +1153,11 @@
       <c r="B9" s="8">
         <v>42292</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1231,10 +1170,10 @@
         <v>42285</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="55"/>
+      <c r="D10" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="62"/>
       <c r="F10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1253,10 +1192,10 @@
         <v>42292</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="57"/>
+      <c r="D11" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="64"/>
       <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1274,11 +1213,11 @@
       <c r="B12" s="8">
         <v>42299</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1291,10 +1230,10 @@
         <v>42292</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="55"/>
+      <c r="D13" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="62"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1305,7 +1244,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>13</v>
@@ -1319,7 +1258,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
@@ -1334,7 +1273,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -1364,7 +1303,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>13</v>
@@ -1378,7 +1317,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
@@ -1392,7 +1331,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
@@ -1406,7 +1345,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
@@ -1420,7 +1359,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1434,7 +1373,7 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>13</v>
@@ -1449,11 +1388,11 @@
       <c r="B24" s="8">
         <v>42340</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1466,10 +1405,10 @@
         <v>42306</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="55"/>
+      <c r="D25" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="62"/>
       <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1483,13 +1422,13 @@
       <c r="B26" s="23">
         <v>42313</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="55"/>
+      <c r="D26" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="62"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -1503,10 +1442,10 @@
       <c r="B27" s="18">
         <v>42305</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="20"/>
       <c r="E27" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>13</v>
@@ -1517,16 +1456,16 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="54">
         <v>42306</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="56">
         <v>42313</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
@@ -1535,9 +1474,9 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="58"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="29"/>
       <c r="E29" s="21" t="s">
         <v>19</v>
@@ -1557,11 +1496,11 @@
       <c r="B30" s="23">
         <v>42320</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="55"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="62"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
@@ -1575,10 +1514,10 @@
       <c r="B31" s="18">
         <v>42306</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="20"/>
       <c r="E31" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1587,16 +1526,16 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50">
+      <c r="A32" s="54">
         <v>42338</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="56">
         <v>42320</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="20"/>
       <c r="E32" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -1605,9 +1544,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21" t="s">
         <v>19</v>
@@ -1627,11 +1566,11 @@
       <c r="B34" s="23">
         <v>42327</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="55"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="62"/>
       <c r="F34" s="13" t="s">
         <v>13</v>
       </c>
@@ -1645,10 +1584,10 @@
       <c r="B35" s="28">
         <v>42320</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>13</v>
@@ -1657,16 +1596,16 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="54">
         <v>42321</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="56">
         <v>42327</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="20"/>
       <c r="E36" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>13</v>
@@ -1677,9 +1616,9 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="20"/>
       <c r="E37" s="21" t="s">
         <v>19</v>
@@ -1697,11 +1636,11 @@
       <c r="B38" s="23">
         <v>42327</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="55"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="62"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13" t="s">
@@ -1715,10 +1654,10 @@
       <c r="B39" s="18">
         <v>42323</v>
       </c>
-      <c r="C39" s="58"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -1727,16 +1666,16 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="50">
+      <c r="A40" s="54">
         <v>42324</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="56">
         <v>42327</v>
       </c>
-      <c r="C40" s="58"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -1745,9 +1684,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="20"/>
       <c r="E41" s="21" t="s">
         <v>19</v>
@@ -1767,28 +1706,28 @@
       <c r="B42" s="23">
         <v>42340</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="44"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="62"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <v>42324</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="32">
         <v>42331</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37" t="s">
-        <v>38</v>
+      <c r="C43" s="72"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13" t="s">
@@ -1800,16 +1739,16 @@
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <v>42332</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="32">
         <v>42338</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37" t="s">
-        <v>37</v>
+      <c r="C44" s="72"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13" t="s">
@@ -1819,15 +1758,15 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
+      <c r="A45" s="31">
         <v>42336</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="33">
         <v>42340</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37" t="s">
+      <c r="C45" s="72"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="13"/>
@@ -1844,11 +1783,11 @@
       <c r="B46" s="23">
         <v>42348</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="55"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="62"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>13</v>
@@ -1856,16 +1795,16 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <v>42341</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="32">
         <v>42345</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>13</v>
@@ -1876,16 +1815,16 @@
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>42343</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="32">
         <v>42348</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="37" t="s">
-        <v>37</v>
+      <c r="E48" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13" t="s">
@@ -1894,14 +1833,14 @@
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>42344</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="32">
         <v>42348</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="38"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="21" t="s">
         <v>19</v>
       </c>
@@ -1916,89 +1855,112 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="82">
-        <v>42350</v>
-      </c>
-      <c r="B50" s="83">
-        <v>42362</v>
-      </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="81" t="s">
+      <c r="A50" s="42">
+        <v>42349</v>
+      </c>
+      <c r="B50" s="43">
+        <v>42355</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="45">
+      <c r="A51" s="38">
+        <v>42343</v>
+      </c>
+      <c r="B51" s="39">
+        <v>42355</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="76">
         <v>42356</v>
       </c>
-      <c r="B51" s="46">
-        <v>42362</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
-        <v>42363</v>
-      </c>
-      <c r="B52" s="43">
-        <v>42363</v>
-      </c>
-      <c r="C52" s="77" t="s">
+      <c r="B52" s="77">
+        <v>42356</v>
+      </c>
+      <c r="C52" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="9" t="s">
+      <c r="D52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="81" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
-        <v>42364</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:C49"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -2015,38 +1977,19 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C26:C49"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F53">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G53">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H53">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
